--- a/bench/cpu-vs-gpu.xlsx
+++ b/bench/cpu-vs-gpu.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">Chain</t>
+  </si>
   <si>
     <t xml:space="preserve">GPU</t>
   </si>
@@ -35,11 +38,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,6 +59,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +177,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -181,25 +200,54 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>CPU vs GPU
+1000 iteration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0901306331645728"/>
-          <c:y val="0.0331703522613623"/>
-          <c:w val="0.725420338771173"/>
-          <c:h val="0.865985109456606"/>
-        </c:manualLayout>
-      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -240,6 +288,29 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$8:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$9:$K$9</c:f>
@@ -247,19 +318,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5370</c:v>
+                  <c:v>4420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5371</c:v>
+                  <c:v>4467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5372</c:v>
+                  <c:v>4470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5373</c:v>
+                  <c:v>5054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5374</c:v>
+                  <c:v>6253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,6 +340,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
@@ -309,6 +391,29 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$8:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$10:$K$10</c:f>
@@ -335,26 +440,265 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="70412310"/>
+        <c:axId val="99694655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70412310"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>MCMC Chains</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99694655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99694655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70412310"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>CPU vs GPU
+1000 iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -378,13 +722,115 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$15:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$11:$K$11</c:f>
+              <c:f>Sheet1!$G$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1.22777777777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24083333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24166666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.40388888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.73694444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$15:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -398,6 +844,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.450833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.894722222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.80444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.41611111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.83222222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,16 +882,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43607483"/>
-        <c:axId val="49452071"/>
+        <c:axId val="96685854"/>
+        <c:axId val="25721595"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43607483"/>
+        <c:axId val="96685854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>MCMC Chains</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -444,7 +942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49452071"/>
+        <c:crossAx val="25721595"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49452071"/>
+        <c:axId val="25721595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,6 +965,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -489,7 +1015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43607483"/>
+        <c:crossAx val="96685854"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -541,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>39960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297360</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -558,12 +1084,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4321800" y="2409840"/>
-        <a:ext cx="7909920" cy="4340880"/>
+        <a:off x="8961840" y="2923560"/>
+        <a:ext cx="5988600" cy="3368520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>716040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>775080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2343960" y="2935440"/>
+        <a:ext cx="5757480" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -577,37 +1133,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F9:K11"/>
+  <dimension ref="F8:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>256</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>5370</v>
+        <f aca="false">4.42*1000</f>
+        <v>4420</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>5371</v>
+        <f aca="false">4.467*1000</f>
+        <v>4467</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>5372</v>
+        <f aca="false">4.47*1000</f>
+        <v>4470</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>5373</v>
+        <f aca="false">5.054*1000</f>
+        <v>5054</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>5374</v>
+        <f aca="false">6.253*1000</f>
+        <v>6253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1623</v>
@@ -626,21 +1207,74 @@
         <v>24596</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>256</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">G9/3600</f>
+        <v>1.22777777777778</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">H9/3600</f>
+        <v>1.24083333333333</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">I9/3600</f>
+        <v>1.24166666666667</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">J9/3600</f>
+        <v>1.40388888888889</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">K9/3600</f>
+        <v>1.73694444444444</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">G10/3600</f>
+        <v>0.450833333333333</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">H10/3600</f>
+        <v>0.894722222222222</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">I10/3600</f>
+        <v>1.80444444444444</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">J10/3600</f>
+        <v>3.41611111111111</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">K10/3600</f>
+        <v>6.83222222222222</v>
       </c>
     </row>
   </sheetData>
